--- a/biology/Zoologie/Coniasaurus/Coniasaurus.xlsx
+++ b/biology/Zoologie/Coniasaurus/Coniasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coniasaurus est un genre fossile de squamates marins ayant vécu durant le Crétacé supérieur. 
 </t>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre compte deux espèces, Coniasaurus crassidens et Coniasaurus gracilodens, dont les restes fossiles ont été découverts dans des sédiments datant du Cénomanien et du Santonien d'Amérique du Nord, d'Angleterre et d'Allemagne[1]. 
-Coniasaurus n'a été décrit qu'à partir de spécimens incomplets, mais il est admis que l'animal avait un crâne relativement allongé avec des dents spécialisées[1]. En comparaison avec Dolichosaurus (en), il peut avoir eu quatre membres courts et un cou ainsi qu'un corps allongés. Une longueur maximale comprise entre 0,5 et 1 m a été proposée[2],[3].
-Des analyses phylogénétiques suggère que Coniasaurus est un taxon frère des Mosasauroidea au sein du clade Pythonomorpha (en)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre compte deux espèces, Coniasaurus crassidens et Coniasaurus gracilodens, dont les restes fossiles ont été découverts dans des sédiments datant du Cénomanien et du Santonien d'Amérique du Nord, d'Angleterre et d'Allemagne. 
+Coniasaurus n'a été décrit qu'à partir de spécimens incomplets, mais il est admis que l'animal avait un crâne relativement allongé avec des dents spécialisées. En comparaison avec Dolichosaurus (en), il peut avoir eu quatre membres courts et un cou ainsi qu'un corps allongés. Une longueur maximale comprise entre 0,5 et 1 m a été proposée,.
+Des analyses phylogénétiques suggère que Coniasaurus est un taxon frère des Mosasauroidea au sein du clade Pythonomorpha (en).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon Paleobiology Database le 3 mai 2023 :
 †Coniasaurus crassidens Owen, 1850
